--- a/trend_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
+++ b/trend_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.34631639202098</v>
+        <v>0.65368360797902</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.58623645478999</v>
+        <v>0.41376354521001</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0431159043462719</v>
+        <v>0.956884095653728</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0439334630144057</v>
+        <v>0.956066536985594</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.265287148925906</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0077024622477288</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0025083282338605</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.994513621483887</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0300452426652043</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0111488760433689</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0500186521261491</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.323414883371414</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.984457924434616</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.21264367816092</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.120689655172414</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0002183203825463</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9995548060830231</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.763005780346821</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>309</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-16.3932676518883</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-25.65775314793</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-9.61631863855369</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-5.3052646122616</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.314835039851797</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.572327044025157</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.415094339622642</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0020788598907737</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.282894736842105</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.118421052631579</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.000111018237082</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.70060790273556</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0109770352303872</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.148387096774194</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.761290322580645</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0025989326765188</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0076620158909823</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.977042359593566</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999927574187863</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.445</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0201739850869925</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0112940630797773</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0291616766467066</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.270973607615748</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0313621833693615</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0057471264367816</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.827586206896552</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0024188847738429</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0002085572839634</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0059545038934861</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.899213670573575</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.571504222628635</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.591954022988506</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0050507349584131</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0036345088431488</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.434419980775477</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.488505747126437</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0006331546761364</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0008806595527093999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.393656640178165</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.936781609195402</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0469679702271977</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.207538628216534</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.333040277228943</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.279571251352367</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
+++ b/trend_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.209824505868494</v>
+        <v>0.17806438150176</v>
       </c>
       <c r="G2" t="n">
-        <v>0.111111111111111</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="H2" t="n">
-        <v>0.466666666666667</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0097607539647824</v>
+        <v>-0.0119887416505063</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0528210373118318</v>
+        <v>-0.0417091678822805</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0122834792147836</v>
+        <v>0.0101935026457619</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.25358465492749</v>
+        <v>-4.28169344660941</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.65368360797902</v>
+        <v>0.061645798999005</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9090909090909089</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.6</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0133313383045523</v>
+        <v>-0.0896629723659802</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.08979556665643119</v>
+        <v>-0.149614458261375</v>
       </c>
       <c r="M3" t="n">
-        <v>0.100484626585709</v>
+        <v>-0.0165667685789341</v>
       </c>
       <c r="N3" t="n">
-        <v>0.138868107339087</v>
+        <v>-0.935450937568912</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,17 +751,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.42662675523012</v>
+        <v>0.0101984077918657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.272727272727273</v>
+        <v>0.296296296296296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.236363636363636</v>
+        <v>0.240740740740741</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -770,16 +770,16 @@
         <v>0.006</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0004276932084309</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.000226299757512</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000334478021978</v>
+        <v>0.0010607516820238</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.12822014051522</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.288801259896261</v>
+        <v>0.18769959278297</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8545454545454541</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K5" t="n">
-        <v>5.52164784149825</v>
+        <v>8.027472527472529</v>
       </c>
       <c r="L5" t="n">
-        <v>-17.8619419066028</v>
+        <v>-11.9627112962649</v>
       </c>
       <c r="M5" t="n">
-        <v>38.0146676830758</v>
+        <v>60.5010578367575</v>
       </c>
       <c r="N5" t="n">
-        <v>2.76082392074913</v>
+        <v>3.7337081523128</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.775644853119012</v>
+        <v>0.663617032603659</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9807692307692309</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0104191102081851</v>
+        <v>0.009773627989396801</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0003895172219232</v>
+        <v>-0.0002323565459421</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0011303200134754</v>
+        <v>-0.0009463440257461</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0004256850994558</v>
+        <v>0.000606022444672</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.73848835591776</v>
+        <v>-2.37738275074721</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.799592915308533</v>
+        <v>0.988358109795186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.145454545454545</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="H7" t="n">
-        <v>0.109090909090909</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0005001651435309</v>
+        <v>-0.0006686248488401</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-9.55651491365777</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8538947932572289</v>
+        <v>0.0487491717246228</v>
       </c>
       <c r="G8" t="n">
-        <v>0.127272727272727</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="H8" t="n">
-        <v>0.836363636363636</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.259</v>
+        <v>0.2625</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0073167067307692</v>
+        <v>0.023516095890411</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02144028586652</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000184565018634</v>
+        <v>0.0402152120092799</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.82498329373329</v>
+        <v>8.95851272015655</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.41376354521001</v>
+        <v>0.0008327595278549</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.781818181818182</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.51</v>
+        <v>7.45</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0050034246575341</v>
+        <v>-0.075940643863179</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0398870219306405</v>
+        <v>-0.103301985548184</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0339097445878467</v>
+        <v>-0.0409025582627834</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.06662349743720559</v>
+        <v>-1.01933750151918</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.654603318945197</v>
+        <v>0.0079837405630284</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.890909090909091</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.281</v>
+        <v>0.2775</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0049601309938709</v>
+        <v>0.0250858516483516</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0252872806815759</v>
+        <v>0.0062365739526518</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0047863465491246</v>
+        <v>0.041077077779989</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.76517117219606</v>
+        <v>9.039946539946531</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.186138097252089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0363636363636364</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.727272727272727</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>0.48</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0248469387755102</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.01886914176577</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75710926311345</v>
+        <v>0.0551615864553793</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>5.1764455782313</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.987279611348288</v>
+        <v>0.0173020791829541</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.709090909090909</v>
+        <v>0.685185185185185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.48</v>
+        <v>0.042</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.022995364010989</v>
+        <v>0.0041644869215291</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0538821267371194</v>
+        <v>0.0008749252856479</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0100343406593406</v>
+        <v>0.0073335641896866</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.79070083562271</v>
+        <v>9.91544505125994</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.583459121467343</v>
+        <v>0.0993697742232045</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.690909090909091</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.041</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0002790297937356</v>
+        <v>1.44494505494506</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0045677343676197</v>
+        <v>-0.282715287809463</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0031793494478171</v>
+        <v>3.73008188028599</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.68056047252604</v>
+        <v>9.63296703296704</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.65368360797902</v>
+        <v>0.06216391439987</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0729166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.981818181818182</v>
+        <v>0.40625</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>16.3</v>
+        <v>0.3</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.567790150423347</v>
+        <v>-0.0112615621788284</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.88377473355118</v>
+        <v>-0.0329214226932648</v>
       </c>
       <c r="M14" t="n">
-        <v>1.21418400508356</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.48337515597145</v>
+        <v>-3.75385405960946</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.188657506686709</v>
+        <v>0.747113270983739</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07526881720430111</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.376344086021505</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>9.465</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0141436420722133</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0222478091279843</v>
+        <v>-0.0278427024206937</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0540971893323097</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.149430978047685</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.919855347406116</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.192982456140351</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.140350877192982</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.956884095653728</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.845454545454545</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>9.359999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0380232914165863</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0021343116404224</v>
+        <v>-0.0002662172011661</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0778805982043303</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4062317459037</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.45032328856788</v>
+        <v>0.73941223175281</v>
       </c>
       <c r="G17" t="n">
-        <v>0.226086956521739</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.139130434782609</v>
+        <v>0.787610619469027</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007</v>
+        <v>225</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.81946026575165</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-14.0315604064157</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.00481398825835</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-1.69753789588962</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.14012198411158</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.59047619047619</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.961697406157252</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.780701754385965</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>230</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-13.9942528735632</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-21.5898939097075</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.19461188414575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-6.08445777111444</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0424066089155373</v>
+        <v>0.991614480817271</v>
       </c>
       <c r="G19" t="n">
-        <v>0.601941747572815</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="H19" t="n">
-        <v>0.388349514563107</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0001110519914867</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003322062439243</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2.77629978716935</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.893313146453441</v>
+        <v>0.0152066610691024</v>
       </c>
       <c r="G20" t="n">
-        <v>0.130434782608696</v>
+        <v>0.149122807017544</v>
       </c>
       <c r="H20" t="n">
-        <v>0.147826086956522</v>
+        <v>0.780701754385965</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.2625</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.005450500454959</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002494063014533</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0124119471816821</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.07638112569869</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.109992031910085</v>
+        <v>0.188702694098072</v>
       </c>
       <c r="G21" t="n">
-        <v>0.173913043478261</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.765217391304348</v>
+        <v>0.614678899082569</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.244</v>
+        <v>7.46</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0075007765052392</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0197272614510438</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0062254984105095</v>
+        <v>0.006113741415091</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.100546601946907</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_4b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.956066536985594</v>
+        <v>0.0045970073004112</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H22" t="n">
-        <v>0.622641509433962</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.48</v>
+        <v>0.2855</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0144653465346535</v>
+        <v>0.0080422018348623</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0276548971184562</v>
+        <v>0.0157989306490182</v>
       </c>
       <c r="N22" t="n">
-        <v>0.193386985757399</v>
+        <v>2.81688330468035</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_4b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0527211750261728</v>
+        <v>0.195257128133449</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008695652173913</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.860869565217391</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.274</v>
+        <v>0.497</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00271614481409</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.002722611588536</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0101885049506252</v>
+        <v>0.0103511407119013</v>
       </c>
       <c r="N23" t="n">
-        <v>0.99129372777008</v>
+        <v>0.804498584280726</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8178363752286411</v>
+        <v>0.0142641849148528</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0173913043478261</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.626086956521739</v>
+        <v>0.5350877192982459</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>0.041</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.332347588717015</v>
+        <v>0.0018279117379435</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.16698994186495</v>
+        <v>0.0004852900616497</v>
       </c>
       <c r="M24" t="n">
-        <v>0.36117256581002</v>
+        <v>0.0028248668827171</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.32939035486806</v>
+        <v>4.45832131205753</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.778602927132918</v>
+        <v>0.122789495052434</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.704347826086957</v>
+        <v>0.939130434782609</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.507</v>
+        <v>15.9</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0026587807097361</v>
+        <v>0.297354138398914</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0106216885136058</v>
+        <v>-0.1326681934766</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0039917381510333</v>
+        <v>0.940097660743172</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.524414341170834</v>
+        <v>1.87015181382965</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.136270526246559</v>
+        <v>0.383186702738369</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0559440559440559</v>
       </c>
       <c r="H26" t="n">
-        <v>0.547826086956522</v>
+        <v>0.328671328671329</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0003998357963875</v>
+        <v>-0.0065026630042595</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0020068681318681</v>
+        <v>0.0042905467322702</v>
       </c>
       <c r="N26" t="n">
-        <v>2.50858516483517</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.543587565457891</v>
+        <v>0.998509081084854</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.965217391304348</v>
+        <v>0.863095238095238</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.6</v>
+        <v>9.32</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0332347588717014</v>
+        <v>0.0377101769911505</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.574465088316776</v>
+        <v>0.0152266178089615</v>
       </c>
       <c r="M27" t="n">
-        <v>0.401426345330011</v>
+        <v>0.0534630452517018</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.200209390793382</v>
+        <v>0.404615632952258</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.997980036643324</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.184971098265896</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.115606936416185</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.265287148925906</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0555555555555556</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.347222222222222</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.3</v>
+        <v>0.007</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-0.0001339684752638</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0077024622477288</v>
+        <v>-0.0002258812615955</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0025083282338605</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.91383536091228</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.994513621483887</v>
+        <v>0.998875784813077</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.846153846153846</v>
+        <v>0.761627906976744</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.289999999999999</v>
+        <v>285</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0300452426652043</v>
+        <v>-14.3940886699507</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0111488760433689</v>
+        <v>-22.0122021390747</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0500186521261491</v>
+        <v>-6.73203469054924</v>
       </c>
       <c r="N29" t="n">
-        <v>0.323414883371414</v>
+        <v>-5.05055742805289</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,25 +3113,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.984457924434616</v>
+        <v>0.455791852784445</v>
       </c>
       <c r="G30" t="n">
-        <v>0.21264367816092</v>
+        <v>0.575949367088608</v>
       </c>
       <c r="H30" t="n">
-        <v>0.120689655172414</v>
+        <v>0.411392405063291</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0002183203825463</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9995548060830231</v>
+        <v>0.0295837286351192</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.282208588957055</v>
       </c>
       <c r="H31" t="n">
-        <v>0.763005780346821</v>
+        <v>0.110429447852761</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>309</v>
+        <v>0.003</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.3932676518883</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-25.65775314793</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-9.61631863855369</v>
+        <v>0.0001251341094246</v>
       </c>
       <c r="N31" t="n">
-        <v>-5.3052646122616</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.314835039851797</v>
+        <v>0.0034443389267341</v>
       </c>
       <c r="G32" t="n">
-        <v>0.572327044025157</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="H32" t="n">
-        <v>0.415094339622642</v>
+        <v>0.773006134969325</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.266</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0038342081241442</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.008478614383680701</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.44143162561813</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0020788598907737</v>
+        <v>0.817372836067056</v>
       </c>
       <c r="G33" t="n">
-        <v>0.282894736842105</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.118421052631579</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>7.44</v>
       </c>
       <c r="K33" t="n">
-        <v>0.000111018237082</v>
+        <v>0.0041742857142856</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0037538540596093</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001999178981937</v>
+        <v>0.0127713445338131</v>
       </c>
       <c r="N33" t="n">
-        <v>3.70060790273556</v>
+        <v>0.0561059907834089</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Whai_4b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0109770352303872</v>
+        <v>0.0055438714280879</v>
       </c>
       <c r="G34" t="n">
-        <v>0.148387096774194</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H34" t="n">
-        <v>0.761290322580645</v>
+        <v>0.861271676300578</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.266</v>
+        <v>0.281</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0025989326765188</v>
+        <v>0.0040989535941765</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0013073130695588</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0076620158909823</v>
+        <v>0.0081488501442132</v>
       </c>
       <c r="N34" t="n">
-        <v>0.977042359593566</v>
+        <v>1.45870234668204</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3549,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999927574187863</v>
+        <v>0.475876081921626</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.555555555555556</v>
+        <v>0.595375722543353</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.445</v>
+        <v>0.53</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0201739850869925</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0112940630797773</v>
+        <v>-0.0044359613982323</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0291616766467066</v>
+        <v>0.0044700260384667</v>
       </c>
       <c r="N35" t="n">
-        <v>0.270973607615748</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Whai_4b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0313621833693615</v>
+        <v>0.493964879983235</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0057471264367816</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.827586206896552</v>
+        <v>0.473988439306358</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.269</v>
+        <v>0.043</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0024188847738429</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0002085572839634</v>
+        <v>-0.0006689281138943</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0059545038934861</v>
+        <v>0.0009073498496822</v>
       </c>
       <c r="N36" t="n">
-        <v>0.899213670573575</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3742,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.571504222628635</v>
+        <v>0.5480685815916641</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.591954022988506</v>
+        <v>0.936781609195402</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.53</v>
+        <v>16.65</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.0275062756732086</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0050507349584131</v>
+        <v>-0.27688679240192</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0036345088431488</v>
+        <v>0.326687918503684</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-0.165202856896148</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ohura at Tokorima</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.434419980775477</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.488505747126437</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0006331546761364</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0008806595527093999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1776199</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5690414</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Middle Whanganui</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Whai_4b</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ohura at Tokorima</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.393656640178165</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.936781609195402</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0469679702271977</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.207538628216534</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.333040277228943</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.279571251352367</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1776199</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5690414</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Middle Whanganui</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Whai_4b</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
+++ b/trend_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -139,43 +139,40 @@
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,31 +651,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.17806438150176</v>
+        <v>0.145696176766978</v>
       </c>
       <c r="G2">
-        <v>0.06666666666666669</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H2">
-        <v>0.555555555555556</v>
+        <v>0.613636363636364</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>0.28</v>
+        <v>0.215</v>
       </c>
       <c r="K2">
-        <v>-0.0119887416505063</v>
+        <v>-0.0148869467141695</v>
       </c>
       <c r="L2">
-        <v>-0.0417091678822805</v>
+        <v>-0.0403156801018245</v>
       </c>
       <c r="M2">
-        <v>0.0101935026457619</v>
+        <v>0.009712495215736999</v>
       </c>
       <c r="N2">
-        <v>-4.28169344660941</v>
+        <v>-6.92416126240444</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -693,19 +690,19 @@
         <v>5690414</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,31 +722,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.061645798999005</v>
+        <v>0.016027170715294</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.925925925925926</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.585000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="K3">
-        <v>-0.0896629723659802</v>
+        <v>-0.129192135989011</v>
       </c>
       <c r="L3">
-        <v>-0.149614458261375</v>
+        <v>-0.192750733486772</v>
       </c>
       <c r="M3">
-        <v>-0.0165667685789341</v>
+        <v>-0.0451545329670329</v>
       </c>
       <c r="N3">
-        <v>-0.935450937568912</v>
+        <v>-1.35138217561727</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -764,19 +761,19 @@
         <v>5690414</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,31 +793,31 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0101984077918657</v>
+        <v>0.0065298223209114</v>
       </c>
       <c r="G4">
-        <v>0.296296296296296</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.240740740740741</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0.006</v>
       </c>
       <c r="K4">
-        <v>0.0004276932084309</v>
+        <v>0.000586276083467</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0010607516820238</v>
+        <v>0.0009048307184145</v>
       </c>
       <c r="N4">
-        <v>7.12822014051522</v>
+        <v>9.77126805778491</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -835,19 +832,19 @@
         <v>5690414</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,37 +864,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.18769959278297</v>
+        <v>0.690854139576788</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="H5">
-        <v>0.925925925925926</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K5">
-        <v>8.027472527472529</v>
+        <v>-12.9268202764977</v>
       </c>
       <c r="L5">
-        <v>-11.9627112962649</v>
+        <v>-24.3110411850521</v>
       </c>
       <c r="M5">
-        <v>60.5010578367575</v>
+        <v>8.017068063199339</v>
       </c>
       <c r="N5">
-        <v>3.7337081523128</v>
+        <v>-6.30576598853546</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1776199</v>
@@ -906,19 +903,19 @@
         <v>5690414</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,7 +935,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.663617032603659</v>
+        <v>0.41469035832443</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -950,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.009773627989396801</v>
+        <v>0.009353939944220501</v>
       </c>
       <c r="K6">
-        <v>-0.0002323565459421</v>
+        <v>0.0001241450241108</v>
       </c>
       <c r="L6">
-        <v>-0.0009463440257461</v>
+        <v>-0.0008376607206686</v>
       </c>
       <c r="M6">
-        <v>0.000606022444672</v>
+        <v>0.0010497355608137</v>
       </c>
       <c r="N6">
-        <v>-2.37738275074721</v>
+        <v>1.32719500928105</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1776199</v>
@@ -977,19 +974,19 @@
         <v>5690414</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.988358109795186</v>
+        <v>0.997606961907364</v>
       </c>
       <c r="G7">
-        <v>0.203703703703704</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="H7">
         <v>0.111111111111111</v>
@@ -1021,25 +1018,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
         <v>-0.000334478021978</v>
       </c>
       <c r="L7">
-        <v>-0.0006686248488401</v>
+        <v>-0.0007439356662295</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-9.55651491365777</v>
+        <v>-11.1492673992674</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1776199</v>
@@ -1048,19 +1045,19 @@
         <v>5690414</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,37 +1077,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0487491717246228</v>
+        <v>0.628289651152374</v>
       </c>
       <c r="G8">
-        <v>0.148148148148148</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="H8">
-        <v>0.833333333333333</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.2625</v>
+        <v>0.246</v>
       </c>
       <c r="K8">
-        <v>0.023516095890411</v>
+        <v>-0.0012482911825017</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-0.0342727941658948</v>
       </c>
       <c r="M8">
-        <v>0.0402152120092799</v>
+        <v>0.0148040601174637</v>
       </c>
       <c r="N8">
-        <v>8.95851272015655</v>
+        <v>-0.507435440041346</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1776199</v>
@@ -1119,19 +1116,19 @@
         <v>5690414</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,37 +1148,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0008327595278549</v>
+        <v>0.194765908111683</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8545454545454541</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.45</v>
+        <v>7.435</v>
       </c>
       <c r="K9">
-        <v>-0.075940643863179</v>
+        <v>-0.0224697556907379</v>
       </c>
       <c r="L9">
-        <v>-0.103301985548184</v>
+        <v>-0.0604067989155245</v>
       </c>
       <c r="M9">
-        <v>-0.0409025582627834</v>
+        <v>0.0182558601830532</v>
       </c>
       <c r="N9">
-        <v>-1.01933750151918</v>
+        <v>-0.302215947420819</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1776199</v>
@@ -1190,16 +1187,16 @@
         <v>5690414</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,37 +1216,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0079837405630284</v>
+        <v>0.314927269521601</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.925925925925926</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2775</v>
+        <v>0.271</v>
       </c>
       <c r="K10">
-        <v>0.0250858516483516</v>
+        <v>0.0059822565969062</v>
       </c>
       <c r="L10">
-        <v>0.0062365739526518</v>
+        <v>-0.0280123355627494</v>
       </c>
       <c r="M10">
-        <v>0.041077077779989</v>
+        <v>0.0183073841106067</v>
       </c>
       <c r="N10">
-        <v>9.039946539946531</v>
+        <v>2.20747475900601</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1776199</v>
@@ -1258,19 +1255,19 @@
         <v>5690414</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,13 +1287,13 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.186138097252089</v>
+        <v>0.435774825803644</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.740740740740741</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1305,22 +1302,22 @@
         <v>0.48</v>
       </c>
       <c r="K11">
-        <v>0.0248469387755102</v>
+        <v>0.0075257554945055</v>
       </c>
       <c r="L11">
-        <v>-0.0100343406593407</v>
+        <v>-0.0217566025741082</v>
       </c>
       <c r="M11">
-        <v>0.0551615864553793</v>
+        <v>0.0403995639974289</v>
       </c>
       <c r="N11">
-        <v>5.1764455782313</v>
+        <v>1.56786572802198</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1776199</v>
@@ -1329,19 +1326,19 @@
         <v>5690414</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,37 +1358,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0173020791829541</v>
+        <v>0.17925701501545</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.685185185185185</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.042</v>
+        <v>0.0455</v>
       </c>
       <c r="K12">
-        <v>0.0041644869215291</v>
+        <v>0.0023133356790992</v>
       </c>
       <c r="L12">
-        <v>0.0008749252856479</v>
+        <v>-0.0016223122679681</v>
       </c>
       <c r="M12">
-        <v>0.0073335641896866</v>
+        <v>0.005662397582167</v>
       </c>
       <c r="N12">
-        <v>9.91544505125994</v>
+        <v>5.08425423977852</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>1776199</v>
@@ -1400,19 +1397,19 @@
         <v>5690414</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,37 +1429,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0993697742232045</v>
+        <v>0.210923987726681</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.963636363636364</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>16.55</v>
       </c>
       <c r="K13">
-        <v>1.44494505494506</v>
+        <v>1.28969676549865</v>
       </c>
       <c r="L13">
-        <v>-0.282715287809463</v>
+        <v>-1.57903123360313</v>
       </c>
       <c r="M13">
-        <v>3.73008188028599</v>
+        <v>3.94470056901314</v>
       </c>
       <c r="N13">
-        <v>9.63296703296704</v>
+        <v>7.7927297008982</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>1776199</v>
@@ -1471,19 +1468,19 @@
         <v>5690414</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,31 +1500,31 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.06216391439987</v>
+        <v>0.0170486437455341</v>
       </c>
       <c r="G14">
-        <v>0.0729166666666667</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="H14">
-        <v>0.40625</v>
+        <v>0.383838383838384</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0.3</v>
       </c>
       <c r="K14">
-        <v>-0.0112615621788284</v>
+        <v>-0.0124829118250171</v>
       </c>
       <c r="L14">
-        <v>-0.0329214226932648</v>
+        <v>-0.0299139838156488</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-3.75385405960946</v>
+        <v>-4.16097060833903</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
@@ -1542,19 +1539,19 @@
         <v>5690414</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,7 +1571,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.747113270983739</v>
+        <v>0.511598923613601</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1586,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.465</v>
+        <v>9.48</v>
       </c>
       <c r="K15">
-        <v>0.0141436420722133</v>
+        <v>0.0014576690964995</v>
       </c>
       <c r="L15">
-        <v>-0.0278427024206937</v>
+        <v>-0.0351511995087791</v>
       </c>
       <c r="M15">
-        <v>0.0540971893323097</v>
+        <v>0.0277060344347498</v>
       </c>
       <c r="N15">
-        <v>0.149430978047685</v>
+        <v>0.0153762562921895</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
@@ -1613,19 +1610,19 @@
         <v>5690414</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,10 +1642,10 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>0.919855347406116</v>
+        <v>0.696483631541879</v>
       </c>
       <c r="G16">
-        <v>0.192982456140351</v>
+        <v>0.219298245614035</v>
       </c>
       <c r="H16">
         <v>0.140350877192982</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0002662172011661</v>
+        <v>-0.0001275645957552</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1675,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q16">
         <v>1776199</v>
@@ -1684,19 +1681,19 @@
         <v>5690414</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,37 +1713,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.73941223175281</v>
+        <v>0.878615959775081</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.009009009009009</v>
       </c>
       <c r="H17">
-        <v>0.787610619469027</v>
+        <v>0.828828828828829</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K17">
-        <v>-3.81946026575165</v>
+        <v>-8.401190237042989</v>
       </c>
       <c r="L17">
-        <v>-14.0315604064157</v>
+        <v>-19.7595043125743</v>
       </c>
       <c r="M17">
-        <v>5.00481398825835</v>
+        <v>2.55823311505129</v>
       </c>
       <c r="N17">
-        <v>-1.69753789588962</v>
+        <v>-3.81872283501954</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1776199</v>
@@ -1755,19 +1752,19 @@
         <v>5690414</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,13 +1784,13 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.14012198411158</v>
+        <v>0.228778894461381</v>
       </c>
       <c r="G18">
-        <v>0.59047619047619</v>
+        <v>0.566037735849057</v>
       </c>
       <c r="H18">
-        <v>0.4</v>
+        <v>0.424528301886792</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1826,19 +1823,19 @@
         <v>5690414</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,13 +1855,13 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.991614480817271</v>
+        <v>0.999997934373685</v>
       </c>
       <c r="G19">
-        <v>0.140350877192982</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H19">
-        <v>0.140350877192982</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1873,22 +1870,22 @@
         <v>0.004</v>
       </c>
       <c r="K19">
-        <v>-0.0001110519914867</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="L19">
-        <v>-0.0003322062439243</v>
+        <v>-0.0004985446331881</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="N19">
-        <v>-2.77629978716935</v>
+        <v>-8.33523505248745</v>
       </c>
       <c r="O19" t="s">
         <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1776199</v>
@@ -1897,19 +1894,19 @@
         <v>5690414</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,40 +1923,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0152066610691024</v>
+        <v>0.48879511184192</v>
       </c>
       <c r="G20">
-        <v>0.149122807017544</v>
+        <v>0.114035087719298</v>
       </c>
       <c r="H20">
-        <v>0.780701754385965</v>
+        <v>0.815789473684211</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.2625</v>
+        <v>0.2515</v>
       </c>
       <c r="K20">
-        <v>0.005450500454959</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0071350816241819</v>
       </c>
       <c r="M20">
-        <v>0.0124119471816821</v>
+        <v>0.0054042945353298</v>
       </c>
       <c r="N20">
-        <v>2.07638112569869</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1776199</v>
@@ -1968,19 +1965,19 @@
         <v>5690414</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,7 +1997,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.188702694098072</v>
+        <v>0.181014393056513</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2012,25 +2009,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.46</v>
+        <v>7.48</v>
       </c>
       <c r="K21">
-        <v>-0.0075007765052392</v>
+        <v>-0.008061276157353201</v>
       </c>
       <c r="L21">
-        <v>-0.0197272614510438</v>
+        <v>-0.0196139938957077</v>
       </c>
       <c r="M21">
-        <v>0.006113741415091</v>
+        <v>0.0059281722396514</v>
       </c>
       <c r="N21">
-        <v>-0.100546601946907</v>
+        <v>-0.10777107162237</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1776199</v>
@@ -2039,16 +2036,16 @@
         <v>5690414</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,37 +2065,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0045970073004112</v>
+        <v>0.262033447083631</v>
       </c>
       <c r="G22">
         <v>0.0087719298245614</v>
       </c>
       <c r="H22">
-        <v>0.859649122807018</v>
+        <v>0.850877192982456</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.2855</v>
+        <v>0.2775</v>
       </c>
       <c r="K22">
-        <v>0.0080422018348623</v>
+        <v>0.0011234620642515</v>
       </c>
       <c r="L22">
-        <v>0.0020068681318681</v>
+        <v>-0.0059874199871064</v>
       </c>
       <c r="M22">
-        <v>0.0157989306490182</v>
+        <v>0.0078365728795836</v>
       </c>
       <c r="N22">
-        <v>2.81688330468035</v>
+        <v>0.404851194324879</v>
       </c>
       <c r="O22" t="s">
         <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>1776199</v>
@@ -2107,19 +2104,19 @@
         <v>5690414</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2136,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.195257128133449</v>
+        <v>0.812386483296836</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.666666666666667</v>
+        <v>0.587719298245614</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.497</v>
+        <v>0.485</v>
       </c>
       <c r="K23">
-        <v>0.0039983579638752</v>
+        <v>-0.0066469517743403</v>
       </c>
       <c r="L23">
-        <v>-0.002722611588536</v>
+        <v>-0.0143200839638753</v>
       </c>
       <c r="M23">
-        <v>0.0103511407119013</v>
+        <v>0.0040972612416052</v>
       </c>
       <c r="N23">
-        <v>0.804498584280726</v>
+        <v>-1.37050552048254</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1776199</v>
@@ -2178,19 +2175,19 @@
         <v>5690414</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.0142641849148528</v>
+        <v>0.27418547112941</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2222,25 +2219,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="K24">
-        <v>0.0018279117379435</v>
+        <v>0.0004207949308755</v>
       </c>
       <c r="L24">
-        <v>0.0004852900616497</v>
+        <v>-0.0007387437844065</v>
       </c>
       <c r="M24">
-        <v>0.0028248668827171</v>
+        <v>0.0015029131241385</v>
       </c>
       <c r="N24">
-        <v>4.45832131205753</v>
+        <v>0.978592862501341</v>
       </c>
       <c r="O24" t="s">
         <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>1776199</v>
@@ -2249,19 +2246,19 @@
         <v>5690414</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,37 +2278,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.122789495052434</v>
+        <v>0.349359015381776</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.939130434782609</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.9</v>
+        <v>16.45</v>
       </c>
       <c r="K25">
-        <v>0.297354138398914</v>
+        <v>0.124829118250171</v>
       </c>
       <c r="L25">
-        <v>-0.1326681934766</v>
+        <v>-0.450259585014728</v>
       </c>
       <c r="M25">
-        <v>0.940097660743172</v>
+        <v>0.702403846153847</v>
       </c>
       <c r="N25">
-        <v>1.87015181382965</v>
+        <v>0.7588396246211</v>
       </c>
       <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1776199</v>
@@ -2320,19 +2317,19 @@
         <v>5690414</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,13 +2349,13 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>0.383186702738369</v>
+        <v>0.180920569444551</v>
       </c>
       <c r="G26">
-        <v>0.0559440559440559</v>
+        <v>0.0482758620689655</v>
       </c>
       <c r="H26">
-        <v>0.328671328671329</v>
+        <v>0.331034482758621</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -2370,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.0065026630042595</v>
+        <v>-0.008949849505926401</v>
       </c>
       <c r="M26">
-        <v>0.0042905467322702</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2382,7 +2379,7 @@
         <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q26">
         <v>1776199</v>
@@ -2391,19 +2388,19 @@
         <v>5690414</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,37 +2420,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.998509081084854</v>
+        <v>0.999754740630204</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.863095238095238</v>
+        <v>0.843373493975904</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.32</v>
+        <v>9.35</v>
       </c>
       <c r="K27">
-        <v>0.0377101769911505</v>
+        <v>0.0420905906957432</v>
       </c>
       <c r="L27">
-        <v>0.0152266178089615</v>
+        <v>0.0206220596206889</v>
       </c>
       <c r="M27">
-        <v>0.0534630452517018</v>
+        <v>0.0604629096614854</v>
       </c>
       <c r="N27">
-        <v>0.404615632952258</v>
+        <v>0.450166745409018</v>
       </c>
       <c r="O27" t="s">
         <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1776199</v>
@@ -2462,19 +2459,19 @@
         <v>5690414</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>0.997980036643324</v>
+        <v>0.945964892957208</v>
       </c>
       <c r="G28">
-        <v>0.184971098265896</v>
+        <v>0.202312138728324</v>
       </c>
       <c r="H28">
-        <v>0.115606936416185</v>
+        <v>0.0982658959537572</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2509,22 +2506,22 @@
         <v>0.007</v>
       </c>
       <c r="K28">
-        <v>-0.0001339684752638</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0002258812615955</v>
+        <v>-0.0001398405555914</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>-1.91383536091228</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1776199</v>
@@ -2533,19 +2530,19 @@
         <v>5690414</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,37 +2562,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.998875784813077</v>
+        <v>0.999795639952955</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0058823529411764</v>
       </c>
       <c r="H29">
-        <v>0.761627906976744</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K29">
-        <v>-14.3940886699507</v>
+        <v>-15.9077773429857</v>
       </c>
       <c r="L29">
-        <v>-22.0122021390747</v>
+        <v>-23.2708094607792</v>
       </c>
       <c r="M29">
-        <v>-6.73203469054924</v>
+        <v>-8.05560681692215</v>
       </c>
       <c r="N29">
-        <v>-5.05055742805289</v>
+        <v>-6.0029348464097</v>
       </c>
       <c r="O29" t="s">
         <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1776199</v>
@@ -2604,19 +2601,19 @@
         <v>5690414</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,13 +2633,13 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.455791852784445</v>
+        <v>0.471612404424427</v>
       </c>
       <c r="G30">
-        <v>0.575949367088608</v>
+        <v>0.566037735849057</v>
       </c>
       <c r="H30">
-        <v>0.411392405063291</v>
+        <v>0.427672955974843</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2666,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1776199</v>
@@ -2675,19 +2672,19 @@
         <v>5690414</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,13 +2704,13 @@
         <v>37</v>
       </c>
       <c r="F31">
-        <v>0.0295837286351192</v>
+        <v>0.307205861500657</v>
       </c>
       <c r="G31">
-        <v>0.282208588957055</v>
+        <v>0.277456647398844</v>
       </c>
       <c r="H31">
-        <v>0.110429447852761</v>
+        <v>0.104046242774566</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2728,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0001251341094246</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2737,7 +2734,7 @@
         <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>1776199</v>
@@ -2746,19 +2743,19 @@
         <v>5690414</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,37 +2775,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.0034443389267341</v>
+        <v>0.0405456007613283</v>
       </c>
       <c r="G32">
-        <v>0.147239263803681</v>
+        <v>0.138728323699422</v>
       </c>
       <c r="H32">
-        <v>0.773006134969325</v>
+        <v>0.791907514450867</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.266</v>
+        <v>0.2422</v>
       </c>
       <c r="K32">
-        <v>0.0038342081241442</v>
+        <v>0.0018295765027322</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.008478614383680701</v>
+        <v>0.0054578907938435</v>
       </c>
       <c r="N32">
-        <v>1.44143162561813</v>
+        <v>0.755399051499686</v>
       </c>
       <c r="O32" t="s">
         <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1776199</v>
@@ -2817,19 +2814,19 @@
         <v>5690414</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,37 +2846,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.817372836067056</v>
+        <v>0.9342324606885281</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.54320987654321</v>
+        <v>0.524691358024691</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.44</v>
+        <v>7.445</v>
       </c>
       <c r="K33">
-        <v>0.0041742857142856</v>
+        <v>0.0065404894548348</v>
       </c>
       <c r="L33">
-        <v>-0.0037538540596093</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.0127713445338131</v>
+        <v>0.0141994793092854</v>
       </c>
       <c r="N33">
-        <v>0.0561059907834089</v>
+        <v>0.0878507650078556</v>
       </c>
       <c r="O33" t="s">
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q33">
         <v>1776199</v>
@@ -2888,16 +2885,16 @@
         <v>5690414</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,37 +2914,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0055438714280879</v>
+        <v>0.0385080910029485</v>
       </c>
       <c r="G34">
         <v>0.0057803468208092</v>
       </c>
       <c r="H34">
-        <v>0.861271676300578</v>
+        <v>0.867052023121387</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.281</v>
+        <v>0.268</v>
       </c>
       <c r="K34">
-        <v>0.0040989535941765</v>
+        <v>0.0031364168618267</v>
       </c>
       <c r="L34">
-        <v>0.0013073130695588</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="M34">
-        <v>0.0081488501442132</v>
+        <v>0.006314908970883</v>
       </c>
       <c r="N34">
-        <v>1.45870234668204</v>
+        <v>1.17030479918907</v>
       </c>
       <c r="O34" t="s">
         <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q34">
         <v>1776199</v>
@@ -2956,19 +2953,19 @@
         <v>5690414</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.475876081921626</v>
+        <v>0.913273291784427</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3003,22 +3000,22 @@
         <v>0.53</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.0033376484922327</v>
       </c>
       <c r="L35">
-        <v>-0.0044359613982323</v>
+        <v>-0.0085082321380503</v>
       </c>
       <c r="M35">
-        <v>0.0044700260384667</v>
+        <v>0.0004593173192642</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-0.629744998534474</v>
       </c>
       <c r="O35" t="s">
         <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1776199</v>
@@ -3027,19 +3024,19 @@
         <v>5690414</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,16 +3053,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>0.493964879983235</v>
+        <v>0.636022303644277</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.473988439306358</v>
+        <v>0.468208092485549</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3074,22 +3071,22 @@
         <v>0.043</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="L36">
-        <v>-0.0006689281138943</v>
+        <v>-0.0009970427661509999</v>
       </c>
       <c r="M36">
-        <v>0.0009073498496822</v>
+        <v>0.0006931639666272001</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>-0.464925344636651</v>
       </c>
       <c r="O36" t="s">
         <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>1776199</v>
@@ -3098,19 +3095,19 @@
         <v>5690414</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3130,31 +3127,31 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.5480685815916641</v>
+        <v>0.696139109868656</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.936781609195402</v>
+        <v>0.947976878612717</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>16.65</v>
+        <v>16.9</v>
       </c>
       <c r="K37">
-        <v>-0.0275062756732086</v>
+        <v>-0.09396141215106731</v>
       </c>
       <c r="L37">
-        <v>-0.27688679240192</v>
+        <v>-0.46145536756435</v>
       </c>
       <c r="M37">
-        <v>0.326687918503684</v>
+        <v>0.279865784951046</v>
       </c>
       <c r="N37">
-        <v>-0.165202856896148</v>
+        <v>-0.555984687284422</v>
       </c>
       <c r="O37" t="s">
         <v>39</v>
@@ -3169,19 +3166,797 @@
         <v>5690414</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>0.137750033184692</v>
+      </c>
+      <c r="G38">
+        <v>0.046242774566474</v>
+      </c>
+      <c r="H38">
+        <v>0.323699421965318</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0.3</v>
+      </c>
+      <c r="K38">
+        <v>-0.0009090343454454</v>
+      </c>
+      <c r="L38">
+        <v>-0.0065079207105659</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>-0.303011448481832</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38">
+        <v>1776199</v>
+      </c>
+      <c r="R38">
+        <v>5690414</v>
+      </c>
+      <c r="S38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U38" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" t="s">
         <v>57</v>
       </c>
-      <c r="W37" t="s">
-        <v>62</v>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <v>0.996352977651294</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.84375</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9.32</v>
+      </c>
+      <c r="K39">
+        <v>0.0250858516483517</v>
+      </c>
+      <c r="L39">
+        <v>0.0100114908600423</v>
+      </c>
+      <c r="M39">
+        <v>0.043374554239833</v>
+      </c>
+      <c r="N39">
+        <v>0.269161498372872</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39">
+        <v>1776199</v>
+      </c>
+      <c r="R39">
+        <v>5690414</v>
+      </c>
+      <c r="S39" t="s">
+        <v>53</v>
+      </c>
+      <c r="T39" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>0.998977694778258</v>
+      </c>
+      <c r="G40">
+        <v>0.202898550724638</v>
+      </c>
+      <c r="H40">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.007</v>
+      </c>
+      <c r="K40">
+        <v>-0.0001022822738728</v>
+      </c>
+      <c r="L40">
+        <v>-0.0001999178981937</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>-1.46117534104092</v>
+      </c>
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40">
+        <v>1776199</v>
+      </c>
+      <c r="R40">
+        <v>5690414</v>
+      </c>
+      <c r="S40" t="s">
+        <v>53</v>
+      </c>
+      <c r="T40" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41">
+        <v>0.9999958127812359</v>
+      </c>
+      <c r="G41">
+        <v>0.009803921568627401</v>
+      </c>
+      <c r="H41">
+        <v>0.794117647058823</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>304.5</v>
+      </c>
+      <c r="K41">
+        <v>-17.731695625259</v>
+      </c>
+      <c r="L41">
+        <v>-25.8721556670369</v>
+      </c>
+      <c r="M41">
+        <v>-10.924140497001</v>
+      </c>
+      <c r="N41">
+        <v>-5.82321695410806</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41">
+        <v>1776199</v>
+      </c>
+      <c r="R41">
+        <v>5690414</v>
+      </c>
+      <c r="S41" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" t="s">
+        <v>54</v>
+      </c>
+      <c r="U41" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42">
+        <v>0.595791526999683</v>
+      </c>
+      <c r="G42">
+        <v>0.568421052631579</v>
+      </c>
+      <c r="H42">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.005</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <v>1776199</v>
+      </c>
+      <c r="R42">
+        <v>5690414</v>
+      </c>
+      <c r="S42" t="s">
+        <v>53</v>
+      </c>
+      <c r="T42" t="s">
+        <v>54</v>
+      </c>
+      <c r="U42" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <v>0.0289689589169262</v>
+      </c>
+      <c r="G43">
+        <v>0.127659574468085</v>
+      </c>
+      <c r="H43">
+        <v>0.776595744680851</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.2515</v>
+      </c>
+      <c r="K43">
+        <v>0.0019538889993055</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0.0052478568875046</v>
+      </c>
+      <c r="N43">
+        <v>0.7768942343163</v>
+      </c>
+      <c r="O43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43">
+        <v>1776199</v>
+      </c>
+      <c r="R43">
+        <v>5690414</v>
+      </c>
+      <c r="S43" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44">
+        <v>0.999847375002346</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.518134715025907</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.42</v>
+      </c>
+      <c r="K44">
+        <v>0.0156882679448414</v>
+      </c>
+      <c r="L44">
+        <v>0.0085305042834584</v>
+      </c>
+      <c r="M44">
+        <v>0.023190476190476</v>
+      </c>
+      <c r="N44">
+        <v>0.211432182545033</v>
+      </c>
+      <c r="O44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44">
+        <v>1776199</v>
+      </c>
+      <c r="R44">
+        <v>5690414</v>
+      </c>
+      <c r="S44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U44" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>0.0545360342658644</v>
+      </c>
+      <c r="G45">
+        <v>0.0048309178743961</v>
+      </c>
+      <c r="H45">
+        <v>0.85024154589372</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.274</v>
+      </c>
+      <c r="K45">
+        <v>0.0020037404852704</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0.0041666723306994</v>
+      </c>
+      <c r="N45">
+        <v>0.7312921479089211</v>
+      </c>
+      <c r="O45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45">
+        <v>1776199</v>
+      </c>
+      <c r="R45">
+        <v>5690414</v>
+      </c>
+      <c r="S45" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" t="s">
+        <v>54</v>
+      </c>
+      <c r="U45" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46">
+        <v>0.513910636139156</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.526570048309179</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.53</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>-0.0033373889632998</v>
+      </c>
+      <c r="M46">
+        <v>0.0032580362921055</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <v>1776199</v>
+      </c>
+      <c r="R46">
+        <v>5690414</v>
+      </c>
+      <c r="S46" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" t="s">
+        <v>54</v>
+      </c>
+      <c r="U46" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47">
+        <v>0.48609499810481</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.043</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>-0.0004994547100542</v>
+      </c>
+      <c r="M47">
+        <v>0.0006610166960111</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>1776199</v>
+      </c>
+      <c r="R47">
+        <v>5690414</v>
+      </c>
+      <c r="S47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" t="s">
+        <v>54</v>
+      </c>
+      <c r="U47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <v>0.670370822316073</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.903381642512077</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>17.2</v>
+      </c>
+      <c r="K48">
+        <v>-0.0575991558192492</v>
+      </c>
+      <c r="L48">
+        <v>-0.328695820067603</v>
+      </c>
+      <c r="M48">
+        <v>0.208647078468482</v>
+      </c>
+      <c r="N48">
+        <v>-0.334878812902612</v>
+      </c>
+      <c r="O48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48">
+        <v>1776199</v>
+      </c>
+      <c r="R48">
+        <v>5690414</v>
+      </c>
+      <c r="S48" t="s">
+        <v>53</v>
+      </c>
+      <c r="T48" t="s">
+        <v>54</v>
+      </c>
+      <c r="U48" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
